--- a/data/trans_dic/P34A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3012847659879597</v>
+        <v>0.3089363014216734</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1231348696575162</v>
+        <v>0.1217255477019798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2094541896006822</v>
+        <v>0.2094490269940829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2298909865367817</v>
+        <v>0.231338923860029</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.314326989704836</v>
+        <v>0.3122386172340231</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1695326851515722</v>
+        <v>0.1697157965131039</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2332026815189688</v>
+        <v>0.2320706283860743</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2007802843168777</v>
+        <v>0.2028756701571149</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3184176041069708</v>
+        <v>0.3180944198173561</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1524089277591775</v>
+        <v>0.1512858867776684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2339458653242332</v>
+        <v>0.2361920008524145</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2277107896315683</v>
+        <v>0.2266372972074022</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3884709909105188</v>
+        <v>0.3913762523854047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1987405394639327</v>
+        <v>0.1928437847241644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2983324114597412</v>
+        <v>0.2947538250426479</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3094047498783874</v>
+        <v>0.3081055649917393</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4232179753918629</v>
+        <v>0.4281895602921732</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2658258064548563</v>
+        <v>0.271210886846276</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3290609135110366</v>
+        <v>0.330916591595672</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2665454715418884</v>
+        <v>0.2684365803846802</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3927564078912856</v>
+        <v>0.3914474652634373</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2115562913772122</v>
+        <v>0.2098084094439906</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2967592047531784</v>
+        <v>0.2996198737541925</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2804164360501913</v>
+        <v>0.2801107984354485</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.25179618271765</v>
+        <v>0.2540053365990648</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1417635868377796</v>
+        <v>0.1426047908755323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2180591533483325</v>
+        <v>0.2180219526102965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.216968268133848</v>
+        <v>0.2160670493855262</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3801812013047751</v>
+        <v>0.3744366917316779</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2124771576586456</v>
+        <v>0.2112662339635831</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2695041080675699</v>
+        <v>0.2717143665146987</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2899824455625479</v>
+        <v>0.2900455041260031</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3279633307517959</v>
+        <v>0.3264721760215856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.182797501949616</v>
+        <v>0.1833999075245088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2580316033566665</v>
+        <v>0.2572346180929527</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2617542364267544</v>
+        <v>0.2629850796763853</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3490071095868293</v>
+        <v>0.3577392977057562</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2203001772430528</v>
+        <v>0.227793856847265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.307928495204116</v>
+        <v>0.3134077763865293</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3012105114501638</v>
+        <v>0.3015331535240464</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4807345021851238</v>
+        <v>0.4769028962740461</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3114032821993916</v>
+        <v>0.3078039018206206</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3676416253330557</v>
+        <v>0.3679620521438767</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3696674486310337</v>
+        <v>0.3692405444354896</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.402351375550122</v>
+        <v>0.3997030520630236</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2455141719539572</v>
+        <v>0.24595856134607</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3220420384236745</v>
+        <v>0.3267286086658634</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3208605476499113</v>
+        <v>0.3179506619256453</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.4180769716560069</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4170523140146437</v>
+        <v>0.4170523140146438</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4641819822440402</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4234550672305389</v>
+        <v>0.4233993876751536</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2184888058454377</v>
+        <v>0.2183525109783125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3230054225704027</v>
+        <v>0.3261728789975256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3208996679357482</v>
+        <v>0.3220250720885207</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3854217523924805</v>
+        <v>0.3959903723971043</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2885881130170856</v>
+        <v>0.2916254299313952</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3410274249569772</v>
+        <v>0.3394145638310535</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3555348274726789</v>
+        <v>0.3548608573282595</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4254003200776195</v>
+        <v>0.4278600572128838</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2535162696924831</v>
+        <v>0.2493478791980171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3388080508411251</v>
+        <v>0.3419501215318867</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3472120194946823</v>
+        <v>0.3425848040064883</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5032709731499208</v>
+        <v>0.5089110809483581</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2906018742747736</v>
+        <v>0.2918635121302734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4097073653014295</v>
+        <v>0.4130270999517213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.419501070251074</v>
+        <v>0.4175624528084745</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.548058778356311</v>
+        <v>0.5499617837981314</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4080276331822236</v>
+        <v>0.411685134970831</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4999757755667401</v>
+        <v>0.5037876513331953</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4767820631575032</v>
+        <v>0.4808586498933017</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4987733176643561</v>
+        <v>0.5026231167502464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3155841925583456</v>
+        <v>0.3140902286332011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.417337683596206</v>
+        <v>0.421201981342076</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4208205698733602</v>
+        <v>0.4195464655855575</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.426916986419688</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4049006237462571</v>
+        <v>0.404900623746257</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.471609781441937</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4410303255263943</v>
+        <v>0.4439009216950263</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2282657113179206</v>
+        <v>0.2290080343045364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.358699365821312</v>
+        <v>0.3604150745568641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3505174947009217</v>
+        <v>0.348480793405037</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4366916012852586</v>
+        <v>0.4376950216257379</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2750286240510304</v>
+        <v>0.2741421429025661</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3931299822874428</v>
+        <v>0.3933552038415186</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3760835323343876</v>
+        <v>0.3777753186918632</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4481076965863307</v>
+        <v>0.4475321045923193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2535282739382617</v>
+        <v>0.2540419796234348</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3796401647212052</v>
+        <v>0.38211469430688</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3697749043889459</v>
+        <v>0.3687416804427757</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4987753183815565</v>
+        <v>0.4987100208310049</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2829219002226119</v>
+        <v>0.2831131204494465</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4156232748623434</v>
+        <v>0.4185038480336584</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4093419723246843</v>
+        <v>0.4096491567147162</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5137387523796515</v>
+        <v>0.5114448043967804</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.344925043886529</v>
+        <v>0.3438749647622821</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4609207115699053</v>
+        <v>0.4626132328497163</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4334139327206378</v>
+        <v>0.4355532261499201</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4952772918843081</v>
+        <v>0.493576469572905</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2958756476697729</v>
+        <v>0.2941289551326242</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4248262682222896</v>
+        <v>0.4271822841978838</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4137693110748097</v>
+        <v>0.4132098863016608</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4083773561736525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4419218716938864</v>
+        <v>0.4419218716938863</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5402198926379357</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4541989202657419</v>
+        <v>0.4564273517649916</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2363326206601802</v>
+        <v>0.2400961726012788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3701219367395363</v>
+        <v>0.3691092254140542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3949687415285602</v>
+        <v>0.3969610664398805</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4972780922494064</v>
+        <v>0.4964806962207766</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3322156810176271</v>
+        <v>0.3308012460308956</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4392801847879793</v>
+        <v>0.4435618195044368</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4260641018069602</v>
+        <v>0.4283887420583729</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4947220693517067</v>
+        <v>0.4970276468120803</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3060978527085086</v>
+        <v>0.3040386855768602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.421413496536728</v>
+        <v>0.4194074406890321</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4262562624012654</v>
+        <v>0.4229838612379677</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5686447586417136</v>
+        <v>0.5638933115023985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3219557708253185</v>
+        <v>0.321438922875068</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4478883096131168</v>
+        <v>0.4461762840046694</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4842021876367238</v>
+        <v>0.4895120063546148</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5784355564545198</v>
+        <v>0.5821082451649067</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.403911779496449</v>
+        <v>0.4018813804449071</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5149913612717943</v>
+        <v>0.5166283173056722</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4854972729246116</v>
+        <v>0.4868390285911389</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5645459621285908</v>
+        <v>0.562109449102977</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3607284651183777</v>
+        <v>0.3599852046164602</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4751705462542439</v>
+        <v>0.4734325409758554</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4765669369509598</v>
+        <v>0.4764166111607683</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4132341623064877</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4074374801626541</v>
+        <v>0.407437480162654</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1505978524640519</v>
+        <v>0.1511578487593458</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08205101010648795</v>
+        <v>0.08150157826350569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1360078420537641</v>
+        <v>0.1351027985554387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0641821159883852</v>
+        <v>0.06693638090279257</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4195999362823218</v>
+        <v>0.420950702598249</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2771524445650493</v>
+        <v>0.277958621369004</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4436122196167815</v>
+        <v>0.4445048464514396</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4555283381435272</v>
+        <v>0.4539449822554631</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3764461603676812</v>
+        <v>0.3762299813803727</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2414647286159799</v>
+        <v>0.2457123097221054</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.383865585403422</v>
+        <v>0.3865013229150258</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3763513264897485</v>
+        <v>0.3728153471682331</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2420169331244448</v>
+        <v>0.2391114228278582</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1643120258265187</v>
+        <v>0.1655797723556583</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2265371232753221</v>
+        <v>0.2265283341938867</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.208843036681144</v>
+        <v>0.2133177541333968</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4775393772676637</v>
+        <v>0.4793178537395203</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3346582910625548</v>
+        <v>0.3319155278524619</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5064363030594182</v>
+        <v>0.5108029404846577</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5228817895862956</v>
+        <v>0.5215612368791616</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4254627421699249</v>
+        <v>0.4264724247961201</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2922245303727375</v>
+        <v>0.2926158972136833</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4387038404560605</v>
+        <v>0.4435399127175348</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4439264922905297</v>
+        <v>0.439042953057113</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3930931157064722</v>
+        <v>0.3930274144893564</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2112604704695379</v>
+        <v>0.2092402573664927</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.323053498049812</v>
+        <v>0.3236929984336409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3182202612891928</v>
+        <v>0.3175037057917546</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4447676662436122</v>
+        <v>0.443901013507355</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2932592778977116</v>
+        <v>0.2936419447501546</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4103099923443811</v>
+        <v>0.4109238875033832</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3920547120336028</v>
+        <v>0.3919614034256378</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4241080559275586</v>
+        <v>0.4223053497999392</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2574621830126276</v>
+        <v>0.2568660497711146</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3719932732589478</v>
+        <v>0.371695568936428</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3601187272862769</v>
+        <v>0.3596799033574788</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4289522900705777</v>
+        <v>0.4290024428511842</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2412001739854797</v>
+        <v>0.2409418981113467</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3573444981441975</v>
+        <v>0.356301073969816</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3535054384248643</v>
+        <v>0.3527172995294854</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.479226103856271</v>
+        <v>0.4781377186274988</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3259336795741409</v>
+        <v>0.3246130012438368</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4439363126196723</v>
+        <v>0.4436042066100006</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4209327631457567</v>
+        <v>0.4187141291079278</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4490408152846951</v>
+        <v>0.4478345926314161</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2802434228465884</v>
+        <v>0.2788727395731585</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3949269034020625</v>
+        <v>0.3964578324477157</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3826691200028168</v>
+        <v>0.3829560964435933</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>141475</v>
+        <v>145068</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53836</v>
+        <v>53220</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>89875</v>
+        <v>89873</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>125995</v>
+        <v>126789</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>94260</v>
+        <v>93634</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>53310</v>
+        <v>53368</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>80934</v>
+        <v>80541</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>98063</v>
+        <v>99087</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>245006</v>
+        <v>244758</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>114560</v>
+        <v>113716</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>181576</v>
+        <v>183320</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>236017</v>
+        <v>234904</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>182415</v>
+        <v>183779</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86892</v>
+        <v>84313</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>128012</v>
+        <v>126477</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>169574</v>
+        <v>168862</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>126914</v>
+        <v>128405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83590</v>
+        <v>85283</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114202</v>
+        <v>114846</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>130184</v>
+        <v>131107</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>302206</v>
+        <v>301199</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>159019</v>
+        <v>157706</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>230329</v>
+        <v>232549</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>290645</v>
+        <v>290328</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>90891</v>
+        <v>91688</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>59370</v>
+        <v>59722</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82258</v>
+        <v>82244</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>104842</v>
+        <v>104406</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>138190</v>
+        <v>136102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>71820</v>
+        <v>71410</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>100329</v>
+        <v>101152</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>122704</v>
+        <v>122731</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>237594</v>
+        <v>236514</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>138343</v>
+        <v>138799</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>193395</v>
+        <v>192797</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>237242</v>
+        <v>238358</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>125981</v>
+        <v>129133</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92261</v>
+        <v>95399</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>116159</v>
+        <v>118226</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>145549</v>
+        <v>145704</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>174739</v>
+        <v>173347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>105258</v>
+        <v>104041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>136863</v>
+        <v>136982</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>156422</v>
+        <v>156242</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>291485</v>
+        <v>289566</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>185807</v>
+        <v>186143</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>241371</v>
+        <v>244883</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>290814</v>
+        <v>288176</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>227699</v>
+        <v>227669</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>137324</v>
+        <v>137238</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>168581</v>
+        <v>170234</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>151037</v>
+        <v>151567</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63464</v>
+        <v>65204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>75070</v>
+        <v>75860</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>56652</v>
+        <v>56385</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66400</v>
+        <v>66274</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>298791</v>
+        <v>300519</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>225286</v>
+        <v>221582</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>233112</v>
+        <v>235274</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>228267</v>
+        <v>225225</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>270617</v>
+        <v>273650</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>182649</v>
+        <v>183441</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>213832</v>
+        <v>215565</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>197445</v>
+        <v>196533</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>90244</v>
+        <v>90557</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>106140</v>
+        <v>107091</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>83057</v>
+        <v>83691</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>89044</v>
+        <v>89806</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>350327</v>
+        <v>353031</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>280443</v>
+        <v>279115</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>287143</v>
+        <v>289802</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>276659</v>
+        <v>275822</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>536645</v>
+        <v>540138</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>264365</v>
+        <v>265225</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>412374</v>
+        <v>414347</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>395274</v>
+        <v>392978</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>308648</v>
+        <v>309358</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>210853</v>
+        <v>210173</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>324677</v>
+        <v>324863</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>323473</v>
+        <v>324928</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>861974</v>
+        <v>860866</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>487993</v>
+        <v>488982</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>749984</v>
+        <v>754873</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>735038</v>
+        <v>732984</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>606909</v>
+        <v>606829</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>327665</v>
+        <v>327887</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>477816</v>
+        <v>481128</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>461610</v>
+        <v>461956</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>363104</v>
+        <v>361483</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>264439</v>
+        <v>263634</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>380663</v>
+        <v>382061</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>372783</v>
+        <v>374623</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>952708</v>
+        <v>949437</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>569503</v>
+        <v>566141</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>839250</v>
+        <v>843905</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>822490</v>
+        <v>821378</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>155723</v>
+        <v>156487</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>120670</v>
+        <v>122592</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>229737</v>
+        <v>229108</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>223413</v>
+        <v>224540</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>276043</v>
+        <v>275600</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>252990</v>
+        <v>251912</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>324296</v>
+        <v>327457</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>352812</v>
+        <v>354737</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>444241</v>
+        <v>446311</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>389393</v>
+        <v>386773</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>572680</v>
+        <v>569954</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>594082</v>
+        <v>589521</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>194962</v>
+        <v>193333</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>164389</v>
+        <v>164125</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>278007</v>
+        <v>276944</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>273888</v>
+        <v>276891</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>321094</v>
+        <v>323133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>307588</v>
+        <v>306042</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>380189</v>
+        <v>381398</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>402027</v>
+        <v>403138</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>506940</v>
+        <v>504752</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>458889</v>
+        <v>457944</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>645733</v>
+        <v>643371</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>664201</v>
+        <v>663992</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>44773</v>
+        <v>44940</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21898</v>
+        <v>21751</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>39054</v>
+        <v>38794</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15226</v>
+        <v>15879</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>515170</v>
+        <v>516829</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>307155</v>
+        <v>308049</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>480000</v>
+        <v>480965</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>383033</v>
+        <v>381701</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>574106</v>
+        <v>573776</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>332047</v>
+        <v>337888</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>525577</v>
+        <v>529186</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>405738</v>
+        <v>401926</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>71952</v>
+        <v>71088</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43852</v>
+        <v>44190</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>65049</v>
+        <v>65046</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>49543</v>
+        <v>50605</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>586306</v>
+        <v>588490</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>370886</v>
+        <v>367847</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>547977</v>
+        <v>552702</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>439667</v>
+        <v>438557</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>648859</v>
+        <v>650399</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>401848</v>
+        <v>402387</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>600660</v>
+        <v>607282</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>478589</v>
+        <v>473324</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1267808</v>
+        <v>1267596</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>722543</v>
+        <v>715633</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1093769</v>
+        <v>1095935</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1092294</v>
+        <v>1089834</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1475599</v>
+        <v>1472724</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1040785</v>
+        <v>1042143</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1449049</v>
+        <v>1451217</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1422120</v>
+        <v>1421782</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2774895</v>
+        <v>2763100</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1794300</v>
+        <v>1790146</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2573196</v>
+        <v>2571136</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2542388</v>
+        <v>2539290</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1383461</v>
+        <v>1383623</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>824941</v>
+        <v>824058</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1209869</v>
+        <v>1206336</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1213410</v>
+        <v>1210705</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1589922</v>
+        <v>1586311</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1156748</v>
+        <v>1152061</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1567804</v>
+        <v>1566631</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1526871</v>
+        <v>1518824</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2938027</v>
+        <v>2930135</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1953067</v>
+        <v>1943514</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2731835</v>
+        <v>2742425</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2701590</v>
+        <v>2703616</v>
       </c>
     </row>
     <row r="32">
